--- a/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_governance.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_governance.xlsx
@@ -365,67 +365,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Cadw</t>
+          <t>Government-Cadw</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Local Authority</t>
+          <t>Government-Local_Authority</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>/Government/National</t>
+          <t>Government-National</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Other</t>
+          <t>Government-Other</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/English Heritage</t>
+          <t>Independent-English_Heritage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Historic Environment Scotland</t>
+          <t>Independent-Historic_Environment_Scotland</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust</t>
+          <t>Independent-National_Trust</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust for Scotland</t>
+          <t>Independent-National_Trust_for_Scotland</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Not for profit</t>
+          <t>Independent-Not_for_profit</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Private</t>
+          <t>Independent-Private</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Unknown</t>
+          <t>Independent-Unknown</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>/University</t>
+          <t>University</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>/Unknown</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -439,13 +439,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>908</v>
+        <v>922</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -494,25 +494,25 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>185</v>
       </c>
       <c r="I3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3">
-        <v>1625</v>
+        <v>1734</v>
       </c>
       <c r="K3">
-        <v>675</v>
+        <v>751</v>
       </c>
       <c r="L3">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
